--- a/12_Hand_gesture_recognition_v2/Hand_gesture_recognition_v2_cam/exe/tinyyolov3_cam/tinyyolov3_cam_summary.xlsx
+++ b/12_Hand_gesture_recognition_v2/Hand_gesture_recognition_v2_cam/exe/tinyyolov3_cam/tinyyolov3_cam_summary.xlsx
@@ -1,12 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sheet1'!$A$4:$S$31</definedName>
@@ -27,12 +28,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
-      <family val="2"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,19 +48,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -89,7 +76,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -454,7 +441,7 @@
   </sheetPr>
   <dimension ref="A1:S36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -847,7 +834,7 @@
         <v>416</v>
       </c>
       <c r="S6" t="n">
-        <v>3985</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="7" outlineLevel="1">
@@ -913,7 +900,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>/module_list.0/conv_0/Conv_output_0</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -973,7 +960,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>/module_list.1/maxpool_1/MaxPool_output_0</t>
+          <t>78</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1033,7 +1020,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>/module_list.2/conv_2/Conv_output_0</t>
+          <t>149</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1093,7 +1080,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>/module_list.3/maxpool_3/MaxPool_output_0</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1153,7 +1140,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>/module_list.4/conv_4/Conv_output_0</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1213,7 +1200,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>/module_list.5/maxpool_5/MaxPool_output_0</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1273,7 +1260,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>/module_list.6/conv_6/Conv_output_0</t>
+          <t>155</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1333,7 +1320,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>/module_list.7/maxpool_7/MaxPool_output_0</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1393,7 +1380,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>/module_list.8/conv_8/Conv_output_0</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1453,7 +1440,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>/module_list.9/maxpool_9/MaxPool_output_0</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1513,7 +1500,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>/module_list.10/conv_10/Conv_output_0</t>
+          <t>161</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1573,7 +1560,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>/module_list.11/maxpool_11/MaxPool_output_0</t>
+          <t>121</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1633,7 +1620,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>/module_list.12/conv_12/Conv_output_0</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1693,7 +1680,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>/module_list.13/conv_13/Conv_output_0</t>
+          <t>167</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1753,7 +1740,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>/module_list.14/conv_14/Conv_output_0</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1873,7 +1860,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>/module_list.18/conv_18/Conv_output_0</t>
+          <t>173</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1933,7 +1920,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>/module_list.19/upsample_19/Resize_output_0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1993,7 +1980,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>/module_list.21/conv_21/Conv_output_0</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2345,7 +2332,7 @@
         </is>
       </c>
       <c r="S32" t="n">
-        <v>30628</v>
+        <v>28307</v>
       </c>
     </row>
     <row r="33">
@@ -2387,6 +2374,6 @@
       </dataBar>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>